--- a/biology/Médecine/Idexx_Laboratories/Idexx_Laboratories.xlsx
+++ b/biology/Médecine/Idexx_Laboratories/Idexx_Laboratories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Idexx Laboratories est une entreprise américaine spécialisée dans les produits et services de diagnostic vétérinaires[1].
+Idexx Laboratories est une entreprise américaine spécialisée dans les produits et services de diagnostic vétérinaires.
 C'est un des leaders mondiaux de la conception, du développement et de la commercialisation d'instruments de tests diagnostiques destinés au contrôle de la santé animale et à l'analyse des produits laitiers et de l'eau.[réf. nécessaire] 
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Diagnostics vétérinaires pour animaux de compagnie.[réf. nécessaire]
 Diagnostics vétérinaires pour animaux de rente et volailles. Détection des maladies infectieuses chez les ruminants, les porcs, les volailles et les chevaux. Test des produits laitiers.
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,9 +587,11 @@
           <t>Principaux actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 8 février 2020[2]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 8 février 2020:
 </t>
         </is>
       </c>
